--- a/q24/1a数据_已替换时间戳_已矫正.xlsx
+++ b/q24/1a数据_已替换时间戳_已矫正.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R161"/>
+  <dimension ref="A1:S161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,11 @@
           <t>HM_volume.8</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -564,6 +569,11 @@
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>sub001</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -604,6 +614,11 @@
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>sub002</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -636,6 +651,11 @@
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>sub003</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -672,6 +692,11 @@
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>sub004</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -704,6 +729,11 @@
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>sub005</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -744,6 +774,11 @@
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>sub006</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -792,6 +827,11 @@
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>sub007</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -828,6 +868,11 @@
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>sub008</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -860,6 +905,11 @@
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>sub009</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -900,6 +950,11 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>sub010</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -932,6 +987,11 @@
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>sub011</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -980,6 +1040,11 @@
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>sub012</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1020,6 +1085,11 @@
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>sub013</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1052,6 +1122,11 @@
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>sub014</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1088,6 +1163,11 @@
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>sub015</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1120,6 +1200,11 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>sub016</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1156,6 +1241,11 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>sub017</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1192,6 +1282,11 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>sub018</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1236,6 +1331,11 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>sub019</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1276,6 +1376,11 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>sub020</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1312,6 +1417,11 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>sub021</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1344,6 +1454,11 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>sub022</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1392,6 +1507,11 @@
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>sub023</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1428,6 +1548,11 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>sub024</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1460,6 +1585,11 @@
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>sub025</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1496,6 +1626,11 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>sub026</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1532,6 +1667,11 @@
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>sub027</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1572,6 +1712,11 @@
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>sub028</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1608,6 +1753,11 @@
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>sub029</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1648,6 +1798,11 @@
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>sub030</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1680,6 +1835,11 @@
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>sub031</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1712,6 +1872,11 @@
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>sub032</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1756,6 +1921,11 @@
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>sub033</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1792,6 +1962,11 @@
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>sub034</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1836,6 +2011,11 @@
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>sub035</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1876,6 +2056,11 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>sub036</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1916,6 +2101,11 @@
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>sub037</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1956,6 +2146,11 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>sub038</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2004,6 +2199,11 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>sub039</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2048,6 +2248,11 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>sub040</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2084,6 +2289,11 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>sub041</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2120,6 +2330,11 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>sub042</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2156,6 +2371,11 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>sub043</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2200,6 +2420,11 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>sub044</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2236,6 +2461,11 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>sub045</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2268,6 +2498,11 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>sub046</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2304,6 +2539,11 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>sub047</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2340,6 +2580,11 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>sub048</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2376,6 +2621,11 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>sub049</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2408,6 +2658,11 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>sub050</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2448,6 +2703,11 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>sub051</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2492,6 +2752,11 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>sub052</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2528,6 +2793,11 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>sub053</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2564,6 +2834,11 @@
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>sub054</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2596,6 +2871,11 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>sub055</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2651,6 +2931,11 @@
       </c>
       <c r="R57" t="n">
         <v>0</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>sub056</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -2684,6 +2969,11 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>sub057</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2716,6 +3006,11 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>sub058</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2748,6 +3043,11 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>sub059</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2803,6 +3103,11 @@
       </c>
       <c r="R61" t="n">
         <v>24492</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>sub060</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -2848,6 +3153,11 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>sub061</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2880,6 +3190,11 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>sub062</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2932,6 +3247,11 @@
       </c>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>sub063</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2976,6 +3296,11 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>sub064</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3012,6 +3337,11 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>sub065</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3052,6 +3382,11 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>sub066</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -3084,6 +3419,11 @@
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>sub067</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -3136,6 +3476,11 @@
       </c>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>sub068</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -3176,6 +3521,11 @@
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>sub069</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -3208,6 +3558,11 @@
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>sub070</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -3252,6 +3607,11 @@
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>sub071</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -3284,6 +3644,11 @@
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>sub072</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -3316,6 +3681,11 @@
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>sub073</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -3360,6 +3730,11 @@
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>sub074</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3400,6 +3775,11 @@
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>sub075</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -3440,6 +3820,11 @@
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>sub076</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -3480,6 +3865,11 @@
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>sub077</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3512,6 +3902,11 @@
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>sub078</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3552,6 +3947,11 @@
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>sub079</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -3584,6 +3984,11 @@
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>sub080</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -3624,6 +4029,11 @@
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>sub081</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3656,6 +4066,11 @@
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>sub082</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -3688,6 +4103,11 @@
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>sub083</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3728,6 +4148,11 @@
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>sub084</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3772,6 +4197,11 @@
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>sub085</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -3808,6 +4238,11 @@
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>sub086</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -3848,6 +4283,11 @@
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>sub087</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3880,6 +4320,11 @@
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>sub088</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -3916,6 +4361,11 @@
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>sub089</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -3952,6 +4402,11 @@
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr"/>
       <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>sub090</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -3988,6 +4443,11 @@
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>sub091</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -4024,6 +4484,11 @@
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>sub092</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -4064,6 +4529,11 @@
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>sub093</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -4104,6 +4574,11 @@
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>sub094</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -4144,6 +4619,11 @@
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>sub095</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -4188,6 +4668,11 @@
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>sub096</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -4220,6 +4705,11 @@
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>sub097</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -4260,6 +4750,11 @@
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>sub098</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -4292,6 +4787,11 @@
       <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr"/>
       <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>sub099</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -4324,6 +4824,11 @@
       <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>sub100</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -4348,6 +4853,11 @@
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr"/>
       <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>sub101</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -4372,6 +4882,11 @@
       <c r="P103" t="inlineStr"/>
       <c r="Q103" t="inlineStr"/>
       <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>sub102</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -4396,6 +4911,11 @@
       <c r="P104" t="inlineStr"/>
       <c r="Q104" t="inlineStr"/>
       <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>sub103</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -4420,6 +4940,11 @@
       <c r="P105" t="inlineStr"/>
       <c r="Q105" t="inlineStr"/>
       <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>sub104</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -4444,6 +4969,11 @@
       <c r="P106" t="inlineStr"/>
       <c r="Q106" t="inlineStr"/>
       <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>sub105</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -4468,6 +4998,11 @@
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr"/>
       <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>sub106</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -4492,6 +5027,11 @@
       <c r="P108" t="inlineStr"/>
       <c r="Q108" t="inlineStr"/>
       <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>sub107</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -4516,6 +5056,11 @@
       <c r="P109" t="inlineStr"/>
       <c r="Q109" t="inlineStr"/>
       <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>sub108</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -4540,6 +5085,11 @@
       <c r="P110" t="inlineStr"/>
       <c r="Q110" t="inlineStr"/>
       <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>sub109</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -4564,6 +5114,11 @@
       <c r="P111" t="inlineStr"/>
       <c r="Q111" t="inlineStr"/>
       <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>sub110</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -4588,6 +5143,11 @@
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr"/>
       <c r="R112" t="inlineStr"/>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>sub111</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -4612,6 +5172,11 @@
       <c r="P113" t="inlineStr"/>
       <c r="Q113" t="inlineStr"/>
       <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>sub112</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -4636,6 +5201,11 @@
       <c r="P114" t="inlineStr"/>
       <c r="Q114" t="inlineStr"/>
       <c r="R114" t="inlineStr"/>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>sub113</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -4660,6 +5230,11 @@
       <c r="P115" t="inlineStr"/>
       <c r="Q115" t="inlineStr"/>
       <c r="R115" t="inlineStr"/>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>sub114</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -4684,6 +5259,11 @@
       <c r="P116" t="inlineStr"/>
       <c r="Q116" t="inlineStr"/>
       <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>sub115</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -4708,6 +5288,11 @@
       <c r="P117" t="inlineStr"/>
       <c r="Q117" t="inlineStr"/>
       <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>sub116</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -4732,6 +5317,11 @@
       <c r="P118" t="inlineStr"/>
       <c r="Q118" t="inlineStr"/>
       <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>sub117</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -4756,6 +5346,11 @@
       <c r="P119" t="inlineStr"/>
       <c r="Q119" t="inlineStr"/>
       <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>sub118</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -4780,6 +5375,11 @@
       <c r="P120" t="inlineStr"/>
       <c r="Q120" t="inlineStr"/>
       <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>sub119</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -4804,6 +5404,11 @@
       <c r="P121" t="inlineStr"/>
       <c r="Q121" t="inlineStr"/>
       <c r="R121" t="inlineStr"/>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>sub120</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -4828,6 +5433,11 @@
       <c r="P122" t="inlineStr"/>
       <c r="Q122" t="inlineStr"/>
       <c r="R122" t="inlineStr"/>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>sub121</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -4852,6 +5462,11 @@
       <c r="P123" t="inlineStr"/>
       <c r="Q123" t="inlineStr"/>
       <c r="R123" t="inlineStr"/>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>sub122</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -4876,6 +5491,11 @@
       <c r="P124" t="inlineStr"/>
       <c r="Q124" t="inlineStr"/>
       <c r="R124" t="inlineStr"/>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>sub123</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -4900,6 +5520,11 @@
       <c r="P125" t="inlineStr"/>
       <c r="Q125" t="inlineStr"/>
       <c r="R125" t="inlineStr"/>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>sub124</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -4924,6 +5549,11 @@
       <c r="P126" t="inlineStr"/>
       <c r="Q126" t="inlineStr"/>
       <c r="R126" t="inlineStr"/>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>sub125</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -4948,6 +5578,11 @@
       <c r="P127" t="inlineStr"/>
       <c r="Q127" t="inlineStr"/>
       <c r="R127" t="inlineStr"/>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>sub126</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -4972,6 +5607,11 @@
       <c r="P128" t="inlineStr"/>
       <c r="Q128" t="inlineStr"/>
       <c r="R128" t="inlineStr"/>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>sub127</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -4996,6 +5636,11 @@
       <c r="P129" t="inlineStr"/>
       <c r="Q129" t="inlineStr"/>
       <c r="R129" t="inlineStr"/>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>sub128</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -5020,6 +5665,11 @@
       <c r="P130" t="inlineStr"/>
       <c r="Q130" t="inlineStr"/>
       <c r="R130" t="inlineStr"/>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>sub129</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -5044,6 +5694,11 @@
       <c r="P131" t="inlineStr"/>
       <c r="Q131" t="inlineStr"/>
       <c r="R131" t="inlineStr"/>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>sub130</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -5072,6 +5727,11 @@
       <c r="P132" t="inlineStr"/>
       <c r="Q132" t="inlineStr"/>
       <c r="R132" t="inlineStr"/>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>sub131</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -5100,6 +5760,11 @@
       <c r="P133" t="inlineStr"/>
       <c r="Q133" t="inlineStr"/>
       <c r="R133" t="inlineStr"/>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>sub132</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -5140,6 +5805,11 @@
       <c r="P134" t="inlineStr"/>
       <c r="Q134" t="inlineStr"/>
       <c r="R134" t="inlineStr"/>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>sub133</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -5172,6 +5842,11 @@
       <c r="P135" t="inlineStr"/>
       <c r="Q135" t="inlineStr"/>
       <c r="R135" t="inlineStr"/>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>sub134</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -5212,6 +5887,11 @@
       <c r="P136" t="inlineStr"/>
       <c r="Q136" t="inlineStr"/>
       <c r="R136" t="inlineStr"/>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>sub135</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -5248,6 +5928,11 @@
       <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr"/>
       <c r="R137" t="inlineStr"/>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>sub136</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -5280,6 +5965,11 @@
       <c r="P138" t="inlineStr"/>
       <c r="Q138" t="inlineStr"/>
       <c r="R138" t="inlineStr"/>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>sub137</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -5316,6 +6006,11 @@
       <c r="P139" t="inlineStr"/>
       <c r="Q139" t="inlineStr"/>
       <c r="R139" t="inlineStr"/>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>sub138</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -5356,6 +6051,11 @@
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="inlineStr"/>
       <c r="R140" t="inlineStr"/>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>sub139</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -5392,6 +6092,11 @@
       <c r="P141" t="inlineStr"/>
       <c r="Q141" t="inlineStr"/>
       <c r="R141" t="inlineStr"/>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>sub140</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -5424,6 +6129,11 @@
       <c r="P142" t="inlineStr"/>
       <c r="Q142" t="inlineStr"/>
       <c r="R142" t="inlineStr"/>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>sub141</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -5464,6 +6174,11 @@
       <c r="P143" t="inlineStr"/>
       <c r="Q143" t="inlineStr"/>
       <c r="R143" t="inlineStr"/>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>sub142</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -5504,6 +6219,11 @@
       <c r="P144" t="inlineStr"/>
       <c r="Q144" t="inlineStr"/>
       <c r="R144" t="inlineStr"/>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>sub143</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -5548,6 +6268,11 @@
       <c r="P145" t="inlineStr"/>
       <c r="Q145" t="inlineStr"/>
       <c r="R145" t="inlineStr"/>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>sub144</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -5580,6 +6305,11 @@
       <c r="P146" t="inlineStr"/>
       <c r="Q146" t="inlineStr"/>
       <c r="R146" t="inlineStr"/>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>sub145</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -5624,6 +6354,11 @@
       <c r="P147" t="inlineStr"/>
       <c r="Q147" t="inlineStr"/>
       <c r="R147" t="inlineStr"/>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>sub146</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -5660,6 +6395,11 @@
       <c r="P148" t="inlineStr"/>
       <c r="Q148" t="inlineStr"/>
       <c r="R148" t="inlineStr"/>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>sub147</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -5696,6 +6436,11 @@
       <c r="P149" t="inlineStr"/>
       <c r="Q149" t="inlineStr"/>
       <c r="R149" t="inlineStr"/>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>sub148</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -5724,6 +6469,11 @@
       <c r="P150" t="inlineStr"/>
       <c r="Q150" t="inlineStr"/>
       <c r="R150" t="inlineStr"/>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>sub149</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -5752,6 +6502,11 @@
       <c r="P151" t="inlineStr"/>
       <c r="Q151" t="inlineStr"/>
       <c r="R151" t="inlineStr"/>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>sub150</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -5784,6 +6539,11 @@
       <c r="P152" t="inlineStr"/>
       <c r="Q152" t="inlineStr"/>
       <c r="R152" t="inlineStr"/>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>sub151</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -5816,6 +6576,11 @@
       <c r="P153" t="inlineStr"/>
       <c r="Q153" t="inlineStr"/>
       <c r="R153" t="inlineStr"/>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>sub152</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -5848,6 +6613,11 @@
       <c r="P154" t="inlineStr"/>
       <c r="Q154" t="inlineStr"/>
       <c r="R154" t="inlineStr"/>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>sub153</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -5888,6 +6658,11 @@
       <c r="P155" t="inlineStr"/>
       <c r="Q155" t="inlineStr"/>
       <c r="R155" t="inlineStr"/>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>sub154</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -5932,6 +6707,11 @@
       <c r="P156" t="inlineStr"/>
       <c r="Q156" t="inlineStr"/>
       <c r="R156" t="inlineStr"/>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>sub155</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -5968,6 +6748,11 @@
       <c r="P157" t="inlineStr"/>
       <c r="Q157" t="inlineStr"/>
       <c r="R157" t="inlineStr"/>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>sub156</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -6004,6 +6789,11 @@
       <c r="P158" t="inlineStr"/>
       <c r="Q158" t="inlineStr"/>
       <c r="R158" t="inlineStr"/>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>sub157</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -6040,6 +6830,11 @@
       <c r="P159" t="inlineStr"/>
       <c r="Q159" t="inlineStr"/>
       <c r="R159" t="inlineStr"/>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>sub158</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -6068,6 +6863,11 @@
       <c r="P160" t="inlineStr"/>
       <c r="Q160" t="inlineStr"/>
       <c r="R160" t="inlineStr"/>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>sub159</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -6096,6 +6896,11 @@
       <c r="P161" t="inlineStr"/>
       <c r="Q161" t="inlineStr"/>
       <c r="R161" t="inlineStr"/>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>sub160</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
